--- a/biology/Zoologie/Acropora_muricata/Acropora_muricata.xlsx
+++ b/biology/Zoologie/Acropora_muricata/Acropora_muricata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corail vinaigrier
 Acropora muricata est une espèce de coraux appartenant à la famille des Acroporidés.
@@ -512,7 +524,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acropora muricata fait partie des acropores branchus : il forme des colonies buissonnantes, constituée de bras parfois relativement longs, de section ronde et d'un diamètre compris entre deux et 5 cm. 
 Ce corail est généralement de couleur crème.
@@ -547,7 +561,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce corail se retrouve dans tout l'Indo-Pacifique tropical. C'est une espèce relativement commune et abondante, et l'une des espèces à la croissance la plus rapide.
 On trouve ce corail relativement près de la surface (rarement au-delà des 5 premiers mètres), car il a besoin de beaucoup de soleil pour sa croissance, et tolère les vagues puissantes et des émersions occasionnelles.
@@ -579,7 +595,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de corail n'est pas menacée individuellement à court terme (l'IUCN la classe comme « quasi menacée »), mais la régression marquée des récifs de corail depuis le XXe siècle due à la pollution, au réchauffement planétaire et à l'acidification des eaux, fait peser de lourdes menaces sur sa population à moyen terme.
 Ce corail est sensible au phénomène de blanchissement des coraux, et est une proie de choix pour certains animaux corallivores comme l'étoile dévoreuse de coraux Acanthaster planci.
@@ -611,9 +629,11 @@
           <t>En aquarium</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est appréciée en aquariophilie récifale, mais sa maintenance y est complexe, et doit être réservée aux aquariophiles chevronnés[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est appréciée en aquariophilie récifale, mais sa maintenance y est complexe, et doit être réservée aux aquariophiles chevronnés.
 </t>
         </is>
       </c>
